--- a/Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/Financials/Yearly/CPB_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C06CE8-5011-4642-B459-CDD771F24FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPB" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,145 +689,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43310</v>
+      </c>
+      <c r="E7" s="2">
         <v>42946</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42582</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42218</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41854</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41483</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41119</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40755</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8685000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7890000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7961000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8082000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8268000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8052000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7175000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7143000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4836000</v>
+        <v>5731000</v>
       </c>
       <c r="E9" s="3">
+        <v>4842000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5186000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5287000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10670000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5140000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4365000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4255000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3054000</v>
+        <v>2954000</v>
       </c>
       <c r="E10" s="3">
+        <v>3048000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2775000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2795000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2402000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2912000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2810000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2888000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,35 +852,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E12" s="3">
         <v>98000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>124000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>117000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>122000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>128000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>116000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>120000</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,63 +909,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E14" s="3">
         <v>269000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>194000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>130000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>61000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>60000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E15" s="3">
         <v>19000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -922,62 +983,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6491000</v>
+        <v>8212000</v>
       </c>
       <c r="E17" s="3">
-        <v>7017000</v>
+        <v>6490000</v>
       </c>
       <c r="F17" s="3">
-        <v>7021000</v>
+        <v>7013000</v>
       </c>
       <c r="G17" s="3">
-        <v>7002000</v>
+        <v>7022000</v>
       </c>
       <c r="H17" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="I17" s="3">
         <v>6969000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6023000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5921000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1399000</v>
+        <v>473000</v>
       </c>
       <c r="E18" s="3">
-        <v>944000</v>
+        <v>1400000</v>
       </c>
       <c r="F18" s="3">
-        <v>1061000</v>
+        <v>948000</v>
       </c>
       <c r="G18" s="3">
-        <v>1266000</v>
+        <v>1060000</v>
       </c>
       <c r="H18" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1083000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1152000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1222000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -989,143 +1057,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="E20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-8000</v>
-      </c>
       <c r="G20" s="3">
-        <v>1000</v>
+        <v>-7000</v>
       </c>
       <c r="H20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>142000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>125000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>122000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1719000</v>
+        <v>885000</v>
       </c>
       <c r="E21" s="3">
-        <v>1268000</v>
+        <v>1723000</v>
       </c>
       <c r="F21" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="G21" s="3">
         <v>1356000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1572000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1632000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1539000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>108000</v>
+        <v>219000</v>
       </c>
       <c r="E22" s="3">
-        <v>111000</v>
+        <v>112000</v>
       </c>
       <c r="F22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="G22" s="3">
         <v>104000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>119000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>270000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>228000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>244000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1293000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>849000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>949000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1148000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>955000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1049000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E24" s="3">
         <v>406000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>286000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>283000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>374000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>275000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>325000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>351000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1150,63 +1234,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E26" s="3">
         <v>887000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>563000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>666000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>774000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>680000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>724000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>749000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E27" s="3">
         <v>887000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>563000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>666000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>785000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>689000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>729000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>743000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1231,14 +1324,17 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>126000</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1247,20 +1343,23 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>81000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-231000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>40000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>53000</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1285,9 +1384,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1312,63 +1414,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>-18000</v>
       </c>
       <c r="E32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="F32" s="3">
-        <v>8000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-1000</v>
+        <v>7000</v>
       </c>
       <c r="H32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-142000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-125000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-122000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E33" s="3">
         <v>887000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>563000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>666000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>866000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>458000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>769000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>796000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1393,68 +1504,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E35" s="3">
         <v>887000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>563000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>666000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>866000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>458000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>769000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>796000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43310</v>
+      </c>
+      <c r="E38" s="2">
         <v>42946</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42582</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42218</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41854</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41483</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41119</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40755</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,8 +1586,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1479,35 +1600,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E41" s="3">
         <v>319000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>296000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>253000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>232000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>333000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>335000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>484000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1532,131 +1657,146 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E43" s="3">
         <v>605000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>626000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>647000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>670000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>635000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>553000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>560000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E44" s="3">
         <v>902000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>940000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>995000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1016000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>925000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>714000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>767000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E45" s="3">
         <v>74000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>198000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>182000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>328000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>169000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>152000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1908000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2093000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2221000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1771000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1963000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E47" s="3">
         <v>69000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>47000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -1667,63 +1807,72 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3233000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2454000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2407000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2347000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2318000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2260000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2127000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2103000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8776000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3233000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3415000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3549000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3608000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3318000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2509000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2660000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1748,9 +1897,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1775,36 +1927,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E52" s="3">
         <v>70000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>87000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>524000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>123000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>136000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1829,36 +1987,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14529000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7726000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7837000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8077000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8113000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8323000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6530000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6862000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1870,8 +2034,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1883,170 +2048,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>893000</v>
+      </c>
+      <c r="E57" s="3">
         <v>666000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>610000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>544000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>527000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>523000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>571000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>585000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1037000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1219000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1543000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1771000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1909000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>786000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>657000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E59" s="3">
         <v>692000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>726000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>719000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>691000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>850000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>713000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>747000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3594000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2395000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2555000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2806000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2989000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3282000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2070000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1989000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7998000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2499000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2314000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2539000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2244000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2544000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2004000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2427000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1187000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1435000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1355000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1215000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1265000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1558000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1350000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2071,9 +2255,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,9 +2285,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2125,36 +2315,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13165000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6089000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6312000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6696000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6498000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7106000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5632000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5774000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2166,8 +2362,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2192,9 +2389,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2219,9 +2419,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2246,9 +2449,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2273,36 +2479,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2385000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1927000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1754000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2198000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1772000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9584000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9185000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2327,9 +2539,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2354,9 +2569,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2381,36 +2599,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1637000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1525000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1381000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1615000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1217000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>898000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1088000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2435,68 +2659,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43310</v>
+      </c>
+      <c r="E80" s="2">
         <v>42946</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42582</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42218</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41854</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41483</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41119</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40755</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E81" s="3">
         <v>887000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>563000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>666000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>866000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>458000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>769000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>796000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2508,35 +2741,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E83" s="3">
         <v>318000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>308000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>303000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>305000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>407000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>262000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2561,9 +2798,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2588,9 +2828,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2615,9 +2858,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2642,9 +2888,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2669,36 +2918,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1291000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1491000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1206000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>967000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>951000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1120000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1142000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2710,35 +2965,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-407000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-338000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-341000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-380000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-347000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-336000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-323000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-272000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2763,9 +3022,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2790,36 +3052,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7197000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-368000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-354000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-603000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-134000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2154000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-323000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2831,35 +3099,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-426000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-420000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-390000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-394000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-391000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-367000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-373000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-378000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2884,9 +3156,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2911,9 +3186,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2938,88 +3216,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5807000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-911000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1099000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-550000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-925000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1237000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-920000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-36000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-26000</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E102" s="3">
         <v>23000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-101000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-149000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>230000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/Financials/Yearly/CPB_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C06CE8-5011-4642-B459-CDD771F24FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CPB" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,158 +654,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43674</v>
+      </c>
+      <c r="E7" s="2">
         <v>43310</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42946</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42218</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41854</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41483</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41119</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40755</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8685000</v>
+        <v>8107000</v>
       </c>
       <c r="E8" s="3">
-        <v>7890000</v>
+        <v>6615000</v>
       </c>
       <c r="F8" s="3">
+        <v>5837000</v>
+      </c>
+      <c r="G8" s="3">
         <v>7961000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8082000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8268000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8052000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7175000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7143000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5731000</v>
+        <v>5390000</v>
       </c>
       <c r="E9" s="3">
-        <v>4842000</v>
+        <v>4157000</v>
       </c>
       <c r="F9" s="3">
+        <v>3401000</v>
+      </c>
+      <c r="G9" s="3">
         <v>5186000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5287000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10670000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5140000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4365000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4255000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2954000</v>
+        <v>2717000</v>
       </c>
       <c r="E10" s="3">
-        <v>3048000</v>
+        <v>2458000</v>
       </c>
       <c r="F10" s="3">
+        <v>2436000</v>
+      </c>
+      <c r="G10" s="3">
         <v>2775000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2795000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2402000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2912000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2810000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2888000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,38 +830,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>110000</v>
+        <v>88000</v>
       </c>
       <c r="E12" s="3">
-        <v>98000</v>
+        <v>201000</v>
       </c>
       <c r="F12" s="3">
+        <v>191000</v>
+      </c>
+      <c r="G12" s="3">
         <v>124000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>117000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>122000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>128000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>116000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>120000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,69 +893,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>998000</v>
+        <v>287000</v>
       </c>
       <c r="E14" s="3">
-        <v>269000</v>
+        <v>254000</v>
       </c>
       <c r="F14" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="G14" s="3">
         <v>194000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>130000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>61000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>60000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>34000</v>
+        <v>48000</v>
       </c>
       <c r="E15" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="3">
         <v>20000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>17000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -984,68 +974,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8212000</v>
+        <v>7123000</v>
       </c>
       <c r="E17" s="3">
-        <v>6490000</v>
+        <v>5601000</v>
       </c>
       <c r="F17" s="3">
+        <v>4396000</v>
+      </c>
+      <c r="G17" s="3">
         <v>7013000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7022000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7000000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6969000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6023000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5921000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>473000</v>
+        <v>984000</v>
       </c>
       <c r="E18" s="3">
-        <v>1400000</v>
+        <v>1014000</v>
       </c>
       <c r="F18" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="G18" s="3">
         <v>948000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1060000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1268000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1083000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1152000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1222000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1058,158 +1055,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>18000</v>
+        <v>-3000</v>
       </c>
       <c r="E20" s="3">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="F20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>142000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>125000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>122000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>885000</v>
+        <v>1427000</v>
       </c>
       <c r="E21" s="3">
-        <v>1723000</v>
+        <v>1425000</v>
       </c>
       <c r="F21" s="3">
+        <v>1749000</v>
+      </c>
+      <c r="G21" s="3">
         <v>1272000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1356000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1572000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1632000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1539000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>219000</v>
+        <v>356000</v>
       </c>
       <c r="E22" s="3">
-        <v>112000</v>
+        <v>201000</v>
       </c>
       <c r="F22" s="3">
         <v>115000</v>
       </c>
       <c r="G22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="H22" s="3">
         <v>104000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>119000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>270000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>228000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>244000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>272000</v>
+        <v>625000</v>
       </c>
       <c r="E23" s="3">
-        <v>1293000</v>
+        <v>830000</v>
       </c>
       <c r="F23" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="G23" s="3">
         <v>849000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>949000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1148000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>955000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1049000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>137000</v>
+        <v>149000</v>
       </c>
       <c r="E24" s="3">
-        <v>406000</v>
+        <v>232000</v>
       </c>
       <c r="F24" s="3">
+        <v>392000</v>
+      </c>
+      <c r="G24" s="3">
         <v>286000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>283000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>374000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>275000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>325000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>351000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,69 +1250,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>135000</v>
+        <v>476000</v>
       </c>
       <c r="E26" s="3">
-        <v>887000</v>
+        <v>598000</v>
       </c>
       <c r="F26" s="3">
+        <v>924000</v>
+      </c>
+      <c r="G26" s="3">
         <v>563000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>666000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>774000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>680000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>724000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>749000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>135000</v>
+        <v>476000</v>
       </c>
       <c r="E27" s="3">
-        <v>887000</v>
+        <v>598000</v>
       </c>
       <c r="F27" s="3">
+        <v>924000</v>
+      </c>
+      <c r="G27" s="3">
         <v>563000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>666000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>785000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>689000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>729000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>743000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,39 +1349,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>126000</v>
+        <v>-265000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-337000</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>81000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-231000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>40000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>53000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1387,9 +1415,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1417,69 +1448,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18000</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5000</v>
+        <v>-17000</v>
       </c>
       <c r="F32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-142000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-125000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-122000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E33" s="3">
         <v>261000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>887000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>563000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>666000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>866000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>458000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>769000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>796000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1507,74 +1547,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E35" s="3">
         <v>261000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>887000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>563000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>666000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>866000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>458000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>769000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>796000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43674</v>
+      </c>
+      <c r="E38" s="2">
         <v>43310</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42946</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42218</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41854</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41483</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41119</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40755</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1587,8 +1636,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1601,38 +1651,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>226000</v>
+        <v>31000</v>
       </c>
       <c r="E41" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F41" s="3">
         <v>319000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>296000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>253000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>232000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>333000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>335000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>484000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1660,146 +1714,161 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>785000</v>
+        <v>574000</v>
       </c>
       <c r="E43" s="3">
+        <v>563000</v>
+      </c>
+      <c r="F43" s="3">
         <v>605000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>626000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>647000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>670000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>635000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>553000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>560000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1199000</v>
+        <v>863000</v>
       </c>
       <c r="E44" s="3">
+        <v>887000</v>
+      </c>
+      <c r="F44" s="3">
         <v>902000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>940000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>995000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1016000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>925000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>714000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>767000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86000</v>
+        <v>499000</v>
       </c>
       <c r="E45" s="3">
+        <v>873000</v>
+      </c>
+      <c r="F45" s="3">
         <v>74000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>198000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>182000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>328000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>169000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>152000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1967000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2296000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1908000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2093000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2221000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1771000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1963000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E47" s="3">
         <v>92000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>69000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>47000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
@@ -1810,69 +1879,78 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3233000</v>
+        <v>2455000</v>
       </c>
       <c r="E48" s="3">
+        <v>2466000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2454000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2407000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2347000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2318000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2260000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2127000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2103000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8776000</v>
+        <v>7432000</v>
       </c>
       <c r="E49" s="3">
+        <v>7568000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3233000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3415000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3549000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3608000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3318000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2509000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2660000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1900,9 +1978,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1930,39 +2011,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132000</v>
+        <v>1217000</v>
       </c>
       <c r="E52" s="3">
+        <v>2147000</v>
+      </c>
+      <c r="F52" s="3">
         <v>70000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>60000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>87000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>524000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>123000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>136000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1990,39 +2077,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13148000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14529000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7726000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7837000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8077000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8113000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8323000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6530000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6862000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2035,8 +2128,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2049,188 +2143,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>893000</v>
+        <v>814000</v>
       </c>
       <c r="E57" s="3">
+        <v>705000</v>
+      </c>
+      <c r="F57" s="3">
         <v>666000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>610000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>544000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>527000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>523000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>571000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>585000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1896000</v>
+        <v>1371000</v>
       </c>
       <c r="E58" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1037000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1219000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1543000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1771000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1909000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>786000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>657000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>805000</v>
+        <v>1200000</v>
       </c>
       <c r="E59" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="F59" s="3">
         <v>692000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>726000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>719000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>691000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>850000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>713000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>747000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3385000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3594000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2395000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2555000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2806000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2989000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3282000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2070000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1989000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7998000</v>
+        <v>7103000</v>
       </c>
       <c r="E61" s="3">
+        <v>7991000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2499000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2314000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2539000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2244000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2544000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2004000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2427000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1564000</v>
+        <v>1483000</v>
       </c>
       <c r="E62" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1187000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1435000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1355000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1215000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1265000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1558000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1350000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2258,9 +2371,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2288,9 +2404,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2318,39 +2437,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12045000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13165000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6089000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6312000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6696000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6498000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7106000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5632000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5774000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2363,8 +2488,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2392,9 +2518,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2422,9 +2551,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2452,9 +2584,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2482,39 +2617,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2224000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2385000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1927000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1754000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2198000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1772000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9584000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9185000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2542,9 +2683,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2572,9 +2716,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2602,39 +2749,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1103000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1364000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1637000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1525000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1381000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1615000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1217000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>898000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1088000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2662,74 +2815,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43674</v>
+      </c>
+      <c r="E80" s="2">
         <v>43310</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42946</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42218</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41854</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41483</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41119</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40755</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E81" s="3">
         <v>261000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>887000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>563000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>666000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>866000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>458000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>769000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>796000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2742,38 +2904,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E83" s="3">
         <v>394000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>318000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>308000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>303000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>305000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>407000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>262000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2801,9 +2967,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2831,9 +3000,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2861,9 +3033,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2891,9 +3066,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2921,39 +3099,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1305000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1291000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1491000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1206000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>967000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>951000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1120000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1142000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2966,38 +3150,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-384000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-407000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-338000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-341000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-380000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-347000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-336000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-323000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-272000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3025,9 +3213,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3055,39 +3246,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7197000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-368000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-354000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-603000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-134000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2154000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-323000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3100,38 +3297,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-426000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-420000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-390000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-394000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-391000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-367000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-373000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-378000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3159,9 +3360,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3189,9 +3393,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3219,97 +3426,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1591000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5807000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-911000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1099000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-550000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-925000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1237000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-920000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-32000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-36000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-93000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-101000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-149000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>230000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
